--- a/familiyfinances.xlsx
+++ b/familiyfinances.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="9405"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="9405" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="機能分け" sheetId="1" r:id="rId1"/>
+    <sheet name="ざっくり画面" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>・カテゴリを分けてどのカテゴリにどのくらい使用したかがわかるもの。</t>
     <phoneticPr fontId="2"/>
@@ -37,16 +37,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・入出金記録</t>
-    <rPh sb="1" eb="4">
-      <t>ニュウシュッキン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・借り入れ</t>
     <rPh sb="1" eb="2">
       <t>カ</t>
@@ -397,16 +387,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>換算合計</t>
-    <rPh sb="0" eb="2">
-      <t>カンサン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>単位選択機能</t>
     <rPh sb="0" eb="2">
       <t>タンイ</t>
@@ -420,24 +400,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>換算機能（円換算）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>円判定機能</t>
-    <rPh sb="0" eb="1">
-      <t>エン</t>
-    </rPh>
-    <rPh sb="1" eb="5">
-      <t>ハンテイキノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>資産登録機能</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>レベル6</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -454,6 +416,452 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これにプラスして日々の入出金を管理できる家計簿の役割を機能追加していきたい。</t>
+    <rPh sb="8" eb="10">
+      <t>ヒビ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウシュツキン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>キノウツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・入出金記録(今のところは保留)</t>
+    <rPh sb="1" eb="4">
+      <t>ニュウシュッキン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レベル2の項目の登録、変更、削除機能</t>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>サクジョキノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除対象の項目へ残っている資産があるかどうかを判定する機能</t>
+    <rPh sb="0" eb="4">
+      <t>サクジョタイショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除対象の項目へ残っている資産がある場合に、他の項目へ振り分ける機能</t>
+    <rPh sb="0" eb="4">
+      <t>サクジョタイショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貯金か借金か財布内資金か、ギフト券かポイントか等の項目</t>
+    <rPh sb="0" eb="2">
+      <t>チョキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シャッキン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイフ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>円なのかドルなのか、ポイントなのか等</t>
+    <rPh sb="0" eb="1">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レベル2の単位を登録する機能</t>
+    <rPh sb="5" eb="7">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レベル2の単位を削除する機能</t>
+    <rPh sb="5" eb="7">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1ドル○円や1ポイント○円等に変換する機能</t>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レベル2の項目の登録、変更、削除機能</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レベル2の項目の登録、変更、削除機能</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資産の値を入力する機能</t>
+    <rPh sb="0" eb="2">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>換算機能（円換算）</t>
+    <rPh sb="0" eb="2">
+      <t>カンサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>エンカンサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資産登録機能</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単位が円ではない場合に、円換算する機能</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンサン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レベル2で入力した数値の単位を選択する機能</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力した値と単位で登録する機能</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録情報を参照する機能</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前回との差分を比較できる機能</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資産の変化を見ることができる機能</t>
+    <rPh sb="0" eb="2">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前回の登録情報を取得する機能</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目分け機能毎の合計</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単位項目毎の合計</t>
+    <rPh sb="0" eb="4">
+      <t>タンイコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザが選択した項目している項目のみの合計</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>換算前の単位が円のもののみ合計</t>
+    <rPh sb="0" eb="3">
+      <t>カンサンマエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全選択の合計</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンセンタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全資産の合計</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンシサン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -494,7 +902,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -518,7 +926,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -536,12 +944,68 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -554,10 +1018,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -566,25 +1030,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -596,10 +1045,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -611,26 +1060,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -639,9 +1073,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -652,26 +1084,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -680,13 +1097,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -695,10 +1110,8 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -707,13 +1120,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -726,7 +1139,96 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -736,74 +1238,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -812,7 +1251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,6 +1259,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -837,7 +1279,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -849,10 +1294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
@@ -864,29 +1306,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,6 +1382,2226 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="244289"/>
+          <a:ext cx="7347697" cy="5638799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>158562</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>52108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>584946</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>42582</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5627033" y="388284"/>
+          <a:ext cx="1793501" cy="494739"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>項目</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>126627</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>93569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>555252</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5595098" y="1102098"/>
+          <a:ext cx="1795742" cy="494740"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>単位</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>306479</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>89645</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8509185" y="172569"/>
+          <a:ext cx="5150786" cy="1934135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>301998</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>51546</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7821145" y="2398057"/>
+          <a:ext cx="3850901" cy="2106708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>616324</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>306479</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>131108</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7451912" y="638735"/>
+          <a:ext cx="1057273" cy="500902"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>555252</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>176772</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7390840" y="1349468"/>
+          <a:ext cx="2355756" cy="1048589"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4022912" y="1826559"/>
+          <a:ext cx="3227293" cy="3697941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>645459</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4746812" y="1956549"/>
+          <a:ext cx="2346512" cy="688040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>前回差分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>58268</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4159621" y="2723029"/>
+          <a:ext cx="3000937" cy="2644589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>過去比較</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15126</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8901391" y="941293"/>
+          <a:ext cx="2562226" cy="1075765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>現在登録されている項目の一覧が表示される。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>490818</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>20170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="角丸四角形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12111318" y="1532964"/>
+          <a:ext cx="1391771" cy="416859"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>541802</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>105333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>566455</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17927</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="角丸四角形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12162302" y="945774"/>
+          <a:ext cx="1391771" cy="416859"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>変更</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>526114</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>550767</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>103091</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="角丸四角形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12146614" y="358585"/>
+          <a:ext cx="1391771" cy="416859"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>582145</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>11204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>606799</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>91887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="角丸四角形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10151969" y="2532528"/>
+          <a:ext cx="1391771" cy="416859"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542365</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>567019</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85162</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="角丸四角形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10112189" y="3870509"/>
+          <a:ext cx="1391771" cy="416859"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>458880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7978027" y="3227294"/>
+          <a:ext cx="1782296" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>現在登録されている単位の一覧が表示される。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>672071</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>148476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>383241</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="59" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2039189" y="1661270"/>
+          <a:ext cx="394728" cy="411818"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>458878</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="458878" y="2073088"/>
+          <a:ext cx="3160621" cy="3440206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>項目の一覧と資産の値と単位が表示される。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>例</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>北洋銀行：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：円：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>○○株：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：株：円換算</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>50000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>円</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザが選択した項目の合計：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>円</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>円だけの合計</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>換算前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>円</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>全ての項目の合計：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>円</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="正方形/長方形 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="448236" y="437030"/>
+          <a:ext cx="3776382" cy="773205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495299" y="504265"/>
+          <a:ext cx="1902759" cy="638735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>数値入力テキスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BOX</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>459443</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>582707</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="正方形/長方形 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2510119" y="560295"/>
+          <a:ext cx="1490382" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>単位選択</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プルダウンメニュー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>71717</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>148476</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="角丸四角形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2122393" y="1166531"/>
+          <a:ext cx="623047" cy="494739"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>611280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>51546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12231780" y="2404781"/>
+          <a:ext cx="1988485" cy="2099984"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>559731</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>584385</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="角丸四角形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10129555" y="3260910"/>
+          <a:ext cx="1391771" cy="416859"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レート変更</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>29135</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8895229" y="230841"/>
+          <a:ext cx="2590801" cy="638735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録項目入力テキスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BOX</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>452718</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>103096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>69478</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7971865" y="2456331"/>
+          <a:ext cx="1866900" cy="638735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録単位入力テキスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BOX</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>6162</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>141193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>505945</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12310221" y="2662517"/>
+          <a:ext cx="1866900" cy="638735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>換算レート入力テキスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BOX</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>230280</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>62751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>254934</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>143434</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="角丸四角形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12534339" y="3592604"/>
+          <a:ext cx="1391771" cy="416859"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>606799</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>51546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>611280</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>93008</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="3"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11543740" y="2740958"/>
+          <a:ext cx="688040" cy="713815"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>584385</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>93008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>611280</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11521326" y="3454773"/>
+          <a:ext cx="710454" cy="14567"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1182,366 +3889,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:N26"/>
+  <dimension ref="B2:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="2.125" customWidth="1"/>
     <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="3.375" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="3.375" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="3.375" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
     <col min="10" max="10" width="20.625" customWidth="1"/>
-    <col min="11" max="11" width="3.375" customWidth="1"/>
-    <col min="12" max="12" width="20.625" customWidth="1"/>
-    <col min="13" max="13" width="3.75" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:13">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:13">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:13">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="14.25" thickBot="1"/>
-    <row r="6" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B6" s="12" t="s">
+    <row r="5" spans="2:13" ht="14.25" thickBot="1"/>
+    <row r="6" spans="2:13" ht="14.25" thickBot="1">
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15" t="s">
+      <c r="I6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="54" customHeight="1">
+      <c r="B7" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>42</v>
       </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="21"/>
     </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
+    <row r="8" spans="2:13" ht="27">
+      <c r="B8" s="31"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="21"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+    <row r="9" spans="2:13" ht="95.25" thickBot="1">
+      <c r="B9" s="31"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="2:13" ht="40.5">
+      <c r="B10" s="31"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="21"/>
+    </row>
+    <row r="11" spans="2:13" ht="27.75" thickBot="1">
+      <c r="B11" s="31"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="2:13" ht="41.25" thickBot="1">
+      <c r="B12" s="31"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="5"/>
+      <c r="E12" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="28"/>
     </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="5"/>
+    <row r="13" spans="2:13" ht="27">
+      <c r="B13" s="31"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="16"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="21"/>
     </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
+    <row r="14" spans="2:13" ht="27.75" thickBot="1">
+      <c r="B14" s="31"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="2:13" ht="40.5">
+      <c r="B15" s="31"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="5"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="21"/>
     </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="4"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="5"/>
-      <c r="N12" t="s">
-        <v>16</v>
-      </c>
+    <row r="16" spans="2:13">
+      <c r="B16" s="31"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="8"/>
     </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="5"/>
-      <c r="N13" t="s">
-        <v>5</v>
-      </c>
+    <row r="17" spans="2:14" ht="40.5">
+      <c r="B17" s="31"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="4"/>
     </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="4"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="4"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="5"/>
-      <c r="N15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="4"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="5"/>
-      <c r="N16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
-      <c r="N17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="18"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
-      <c r="N18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="4"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="5"/>
-      <c r="N19" t="s">
-        <v>10</v>
-      </c>
+    <row r="18" spans="2:14" ht="14.25" thickBot="1">
+      <c r="B18" s="30"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="6"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="4"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="5"/>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="4"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="5"/>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="2:14" ht="14.25" thickBot="1">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
+    <row r="22" spans="2:14">
+      <c r="N22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="N23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="N24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="N25" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" t="s">
-        <v>4</v>
+      <c r="N26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="N27" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="B7:B18"/>
+    <mergeCell ref="C7:C18"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1552,12 +4303,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
